--- a/Document/装备.xlsx
+++ b/Document/装备.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView windowWidth="28695" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
@@ -13,249 +13,530 @@
     <sheet name="铠甲" sheetId="4" r:id="rId4"/>
     <sheet name="靴子" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
   <si>
     <t>装备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击系数</t>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始攻击</t>
+  </si>
+  <si>
+    <t>攻击成长</t>
+  </si>
+  <si>
+    <t>可洗练上限</t>
+  </si>
+  <si>
+    <t>传奇</t>
   </si>
   <si>
     <t>穿刺类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*3</t>
   </si>
   <si>
     <t>智能选取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丈八蛇矛</t>
   </si>
   <si>
     <t>穿刺效果不衰减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击系数提升</t>
   </si>
   <si>
     <t>1*4</t>
   </si>
   <si>
-    <t>攻击系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击系数提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>范围提升</t>
   </si>
   <si>
     <t>横扫类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙偃月刀</t>
+  </si>
+  <si>
+    <t>4*2</t>
+  </si>
+  <si>
+    <t>后排50%溅射</t>
+  </si>
+  <si>
+    <t>方天画戟</t>
   </si>
   <si>
     <t>5*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉碎类</t>
+  </si>
+  <si>
+    <t>3*2</t>
+  </si>
+  <si>
+    <t>10%击晕</t>
+  </si>
+  <si>
+    <t>擂鼓瓮金锤</t>
+  </si>
+  <si>
+    <t>3*3</t>
+  </si>
+  <si>
+    <t>青釭剑</t>
+  </si>
+  <si>
+    <t>短兵类</t>
+  </si>
+  <si>
+    <t>破甲攻击，持续两回合</t>
+  </si>
+  <si>
+    <t>雌雄双股剑</t>
+  </si>
+  <si>
+    <t>几率双击</t>
+  </si>
+  <si>
+    <t>倚天剑</t>
+  </si>
+  <si>
+    <t>古锭刀</t>
+  </si>
+  <si>
+    <t>追击攻击</t>
+  </si>
+  <si>
+    <t>屠龙刀</t>
   </si>
   <si>
     <t>十字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉碎类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*2</t>
-  </si>
-  <si>
-    <t>3*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*3</t>
-  </si>
-  <si>
-    <t>10%击晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后排50%溅射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短兵类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十字50%溅射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青釭剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方天画戟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚天剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>远射类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>几率双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雌雄双股剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丈八蛇矛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%麻痹攻击</t>
+  </si>
+  <si>
+    <t>连击攻击</t>
   </si>
   <si>
     <t>法术类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智能选取血量比最少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>额外增加两个目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青龙偃月刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可洗练上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追击攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击系数提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>套装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破甲攻击，持续两回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擂鼓瓮金锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古锭刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屠龙刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20%麻痹攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,19 +544,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -563,357 +1132,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0.8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>0.8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0.8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0.6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0.8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0.6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>0.6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0.7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0.5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>0.5</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -921,22 +1491,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -944,22 +1514,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>1.2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -967,16 +1537,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -984,22 +1554,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1007,19 +1577,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>0.6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1027,19 +1597,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>0.8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1047,16 +1617,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1064,16 +1634,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1081,16 +1651,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1098,19 +1668,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1118,134 +1688,142 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>0.5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>